--- a/database/industries/dode/shesadaf/product/yearly.xlsx
+++ b/database/industries/dode/shesadaf/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63596A-6156-4A21-8A59-941184283D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56C128-9727-4911-8361-C05A06A1F131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شصدف-صنعتی دوده فام</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -568,16 +553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N58"/>
+  <dimension ref="B1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -586,13 +571,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,13 +583,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -620,13 +595,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -635,13 +605,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,13 +617,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -684,13 +639,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -711,23 +661,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -736,165 +671,100 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9">
         <v>49199</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="11">
-        <v>30178064</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="E11" s="11">
         <v>38995885</v>
       </c>
-      <c r="K11" s="11">
+      <c r="F11" s="11">
         <v>38071299</v>
       </c>
-      <c r="L11" s="11">
+      <c r="G11" s="11">
         <v>36735491</v>
       </c>
-      <c r="M11" s="11">
+      <c r="H11" s="11">
         <v>41413</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>0</v>
+        <v>38995885</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>38071299</v>
       </c>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>36735491</v>
       </c>
       <c r="H13" s="13">
-        <v>0</v>
+        <v>41413</v>
       </c>
       <c r="I13" s="13">
-        <v>30178064</v>
-      </c>
-      <c r="J13" s="13">
-        <v>38995885</v>
-      </c>
-      <c r="K13" s="13">
-        <v>38071299</v>
-      </c>
-      <c r="L13" s="13">
-        <v>36735491</v>
-      </c>
-      <c r="M13" s="13">
-        <v>41413</v>
-      </c>
-      <c r="N13" s="13">
         <v>49199</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -903,13 +773,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -918,13 +783,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -933,15 +793,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -960,23 +815,8 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -985,204 +825,124 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-17240</v>
+      </c>
+      <c r="G19" s="9">
+        <v>-2750</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-5000</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="9">
-        <v>-17240</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-2750</v>
-      </c>
-      <c r="M19" s="9">
-        <v>-5000</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="11">
+        <v>12</v>
+      </c>
+      <c r="I20" s="11">
         <v>43134</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="9">
-        <v>30008791</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="E21" s="9">
         <v>38995885</v>
       </c>
-      <c r="K21" s="9">
+      <c r="F21" s="9">
         <v>37896395</v>
       </c>
-      <c r="L21" s="9">
+      <c r="G21" s="9">
         <v>35400251</v>
       </c>
-      <c r="M21" s="9">
+      <c r="H21" s="9">
         <v>43283119</v>
       </c>
-      <c r="N21" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>0</v>
+        <v>38995885</v>
       </c>
       <c r="F23" s="15">
-        <v>0</v>
+        <v>37879155</v>
       </c>
       <c r="G23" s="15">
-        <v>0</v>
+        <v>35397501</v>
       </c>
       <c r="H23" s="15">
-        <v>0</v>
+        <v>43278119</v>
       </c>
       <c r="I23" s="15">
-        <v>30008791</v>
-      </c>
-      <c r="J23" s="15">
-        <v>38995885</v>
-      </c>
-      <c r="K23" s="15">
-        <v>37879155</v>
-      </c>
-      <c r="L23" s="15">
-        <v>35397501</v>
-      </c>
-      <c r="M23" s="15">
-        <v>43278119</v>
-      </c>
-      <c r="N23" s="15">
         <v>43134</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1191,13 +951,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1206,13 +961,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1221,15 +971,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1248,23 +993,8 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1273,167 +1003,102 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F29" s="9">
+        <v>-1223</v>
+      </c>
+      <c r="G29" s="9">
+        <v>-3748</v>
+      </c>
+      <c r="H29" s="9">
+        <v>-525</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="9">
-        <v>-1223</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-3748</v>
-      </c>
-      <c r="M29" s="9">
-        <v>-525</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>17</v>
+      <c r="E30" s="11">
+        <v>1319974</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2584862</v>
+      </c>
+      <c r="G30" s="11">
+        <v>3302464</v>
+      </c>
+      <c r="H30" s="11">
+        <v>5322034</v>
       </c>
       <c r="I30" s="11">
-        <v>755691</v>
-      </c>
-      <c r="J30" s="11">
-        <v>1319974</v>
-      </c>
-      <c r="K30" s="11">
-        <v>2584862</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3302464</v>
-      </c>
-      <c r="M30" s="11">
-        <v>5322034</v>
-      </c>
-      <c r="N30" s="11">
         <v>10593475</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>1319974</v>
       </c>
       <c r="F32" s="13">
-        <v>0</v>
+        <v>2583639</v>
       </c>
       <c r="G32" s="13">
-        <v>0</v>
+        <v>3298716</v>
       </c>
       <c r="H32" s="13">
-        <v>0</v>
+        <v>5321509</v>
       </c>
       <c r="I32" s="13">
-        <v>755691</v>
-      </c>
-      <c r="J32" s="13">
-        <v>1319974</v>
-      </c>
-      <c r="K32" s="13">
-        <v>2583639</v>
-      </c>
-      <c r="L32" s="13">
-        <v>3298716</v>
-      </c>
-      <c r="M32" s="13">
-        <v>5321509</v>
-      </c>
-      <c r="N32" s="13">
         <v>10593475</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1442,13 +1107,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1457,13 +1117,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1472,15 +1127,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1499,23 +1149,8 @@
       <c r="I36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1524,130 +1159,80 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>17</v>
+      <c r="E39" s="11">
+        <v>33849</v>
+      </c>
+      <c r="F39" s="11">
+        <v>68209</v>
+      </c>
+      <c r="G39" s="11">
+        <v>93289</v>
+      </c>
+      <c r="H39" s="11">
+        <v>122959</v>
       </c>
       <c r="I39" s="11">
-        <v>25182</v>
-      </c>
-      <c r="J39" s="11">
-        <v>33849</v>
-      </c>
-      <c r="K39" s="11">
-        <v>68209</v>
-      </c>
-      <c r="L39" s="11">
-        <v>93289</v>
-      </c>
-      <c r="M39" s="11">
-        <v>122959</v>
-      </c>
-      <c r="N39" s="11">
         <v>245594543</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1656,13 +1241,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1671,13 +1251,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1686,15 +1261,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1713,23 +1283,8 @@
       <c r="I44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1738,132 +1293,82 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F46" s="9">
+        <v>843</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2928</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="9">
-        <v>843</v>
-      </c>
-      <c r="L46" s="9">
-        <v>2928</v>
-      </c>
-      <c r="M46" s="9">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="11">
+        <v>12</v>
+      </c>
+      <c r="F47" s="11">
         <v>-1780804</v>
       </c>
-      <c r="L47" s="11">
+      <c r="G47" s="11">
         <v>-2580156</v>
       </c>
-      <c r="M47" s="11">
+      <c r="H47" s="11">
         <v>-3884461</v>
       </c>
-      <c r="N47" s="11">
+      <c r="I47" s="11">
         <v>-8499119</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -1871,34 +1376,19 @@
         <v>0</v>
       </c>
       <c r="F49" s="13">
-        <v>0</v>
+        <v>-1779961</v>
       </c>
       <c r="G49" s="13">
-        <v>0</v>
+        <v>-2577228</v>
       </c>
       <c r="H49" s="13">
-        <v>0</v>
+        <v>-3884461</v>
       </c>
       <c r="I49" s="13">
-        <v>0</v>
-      </c>
-      <c r="J49" s="13">
-        <v>0</v>
-      </c>
-      <c r="K49" s="13">
-        <v>-1779961</v>
-      </c>
-      <c r="L49" s="13">
-        <v>-2577228</v>
-      </c>
-      <c r="M49" s="13">
-        <v>-3884461</v>
-      </c>
-      <c r="N49" s="13">
         <v>-8499119</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1907,13 +1397,8 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1922,13 +1407,8 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1937,15 +1417,10 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1964,23 +1439,8 @@
       <c r="I53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1989,132 +1449,82 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F55" s="9">
+        <v>-380</v>
+      </c>
+      <c r="G55" s="9">
+        <v>-820</v>
+      </c>
+      <c r="H55" s="9">
+        <v>-525</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="9">
-        <v>-380</v>
-      </c>
-      <c r="L55" s="9">
-        <v>-820</v>
-      </c>
-      <c r="M55" s="9">
-        <v>-525</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="11">
+        <v>12</v>
+      </c>
+      <c r="F56" s="11">
         <v>804058</v>
       </c>
-      <c r="L56" s="11">
+      <c r="G56" s="11">
         <v>722308</v>
       </c>
-      <c r="M56" s="11">
+      <c r="H56" s="11">
         <v>1437573</v>
       </c>
-      <c r="N56" s="11">
+      <c r="I56" s="11">
         <v>2094356</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9">
-        <v>0</v>
-      </c>
-      <c r="N57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2122,30 +1532,15 @@
         <v>0</v>
       </c>
       <c r="F58" s="13">
-        <v>0</v>
+        <v>803678</v>
       </c>
       <c r="G58" s="13">
-        <v>0</v>
+        <v>721488</v>
       </c>
       <c r="H58" s="13">
-        <v>0</v>
+        <v>1437048</v>
       </c>
       <c r="I58" s="13">
-        <v>0</v>
-      </c>
-      <c r="J58" s="13">
-        <v>0</v>
-      </c>
-      <c r="K58" s="13">
-        <v>803678</v>
-      </c>
-      <c r="L58" s="13">
-        <v>721488</v>
-      </c>
-      <c r="M58" s="13">
-        <v>1437048</v>
-      </c>
-      <c r="N58" s="13">
         <v>2094356</v>
       </c>
     </row>

--- a/database/industries/dode/shesadaf/product/yearly.xlsx
+++ b/database/industries/dode/shesadaf/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56C128-9727-4911-8361-C05A06A1F131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B20FC9E-4F3F-4C9E-A5D0-B9C833092E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>دوده صنعتی</t>
   </si>
   <si>
@@ -91,7 +91,7 @@
     <t>ریال / ریال</t>
   </si>
   <si>
-    <t>کیلوگرم / ریال</t>
+    <t>تن / ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -557,12 +557,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -572,7 +572,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,7 +596,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -606,7 +606,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -640,7 +640,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -672,7 +672,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -689,14 +689,14 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
+      <c r="H10" s="9">
+        <v>49199</v>
       </c>
       <c r="I10" s="9">
-        <v>49199</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56894</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -705,22 +705,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>38995885</v>
+        <v>38071299</v>
       </c>
       <c r="F11" s="11">
-        <v>38071299</v>
+        <v>36735491</v>
       </c>
       <c r="G11" s="11">
-        <v>36735491</v>
-      </c>
-      <c r="H11" s="11">
         <v>41413</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -735,36 +735,36 @@
       <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>38995885</v>
+        <v>38071299</v>
       </c>
       <c r="F13" s="13">
-        <v>38071299</v>
+        <v>36735491</v>
       </c>
       <c r="G13" s="13">
-        <v>36735491</v>
+        <v>41413</v>
       </c>
       <c r="H13" s="13">
-        <v>41413</v>
+        <v>49199</v>
       </c>
       <c r="I13" s="13">
-        <v>49199</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56894</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -774,7 +774,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -784,7 +784,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -794,7 +794,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -826,7 +826,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
@@ -834,23 +834,23 @@
         <v>18</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
+      <c r="E19" s="9">
+        <v>-17240</v>
       </c>
       <c r="F19" s="9">
-        <v>-17240</v>
+        <v>-2750</v>
       </c>
       <c r="G19" s="9">
-        <v>-2750</v>
-      </c>
-      <c r="H19" s="9">
         <v>-5000</v>
       </c>
+      <c r="H19" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
@@ -867,14 +867,14 @@
       <c r="G20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>12</v>
+      <c r="H20" s="11">
+        <v>43134</v>
       </c>
       <c r="I20" s="11">
-        <v>43134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60405</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
@@ -883,29 +883,29 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>38995885</v>
+        <v>37896395</v>
       </c>
       <c r="F21" s="9">
-        <v>37896395</v>
+        <v>35400251</v>
       </c>
       <c r="G21" s="9">
-        <v>35400251</v>
-      </c>
-      <c r="H21" s="9">
         <v>43283119</v>
       </c>
+      <c r="H21" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>12</v>
+      <c r="E22" s="11">
+        <v>0</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
@@ -917,32 +917,32 @@
         <v>0</v>
       </c>
       <c r="I22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>38995885</v>
+        <v>37879155</v>
       </c>
       <c r="F23" s="15">
-        <v>37879155</v>
+        <v>35397501</v>
       </c>
       <c r="G23" s="15">
-        <v>35397501</v>
+        <v>43278119</v>
       </c>
       <c r="H23" s="15">
-        <v>43278119</v>
+        <v>43134</v>
       </c>
       <c r="I23" s="15">
-        <v>43134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60350</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -952,7 +952,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -962,7 +962,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -972,7 +972,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -994,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1012,23 +1012,23 @@
         <v>20</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
+      <c r="E29" s="9">
+        <v>-1223</v>
       </c>
       <c r="F29" s="9">
-        <v>-1223</v>
+        <v>-3748</v>
       </c>
       <c r="G29" s="9">
-        <v>-3748</v>
-      </c>
-      <c r="H29" s="9">
         <v>-525</v>
       </c>
+      <c r="H29" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I29" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>10</v>
       </c>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>1319974</v>
+        <v>2584862</v>
       </c>
       <c r="F30" s="11">
-        <v>2584862</v>
+        <v>3302464</v>
       </c>
       <c r="G30" s="11">
-        <v>3302464</v>
+        <v>5322034</v>
       </c>
       <c r="H30" s="11">
-        <v>5322034</v>
+        <v>10593475</v>
       </c>
       <c r="I30" s="11">
-        <v>10593475</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20425052</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>14</v>
       </c>
@@ -1060,8 +1060,8 @@
         <v>20</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>12</v>
+      <c r="E31" s="9">
+        <v>0</v>
       </c>
       <c r="F31" s="9">
         <v>0</v>
@@ -1073,32 +1073,32 @@
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-19267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>1319974</v>
+        <v>2583639</v>
       </c>
       <c r="F32" s="13">
-        <v>2583639</v>
+        <v>3298716</v>
       </c>
       <c r="G32" s="13">
-        <v>3298716</v>
+        <v>5321509</v>
       </c>
       <c r="H32" s="13">
-        <v>5321509</v>
+        <v>10593475</v>
       </c>
       <c r="I32" s="13">
-        <v>10593475</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20405785</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1108,7 +1108,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1118,7 +1118,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1160,7 +1160,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>17</v>
       </c>
@@ -1168,8 +1168,8 @@
         <v>22</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>12</v>
+      <c r="E38" s="9">
+        <v>0</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -1177,14 +1177,14 @@
       <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="9">
-        <v>0</v>
+      <c r="H38" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>10</v>
       </c>
@@ -1193,31 +1193,31 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>33849</v>
+        <v>68209</v>
       </c>
       <c r="F39" s="11">
-        <v>68209</v>
+        <v>93289</v>
       </c>
       <c r="G39" s="11">
-        <v>93289</v>
+        <v>122959</v>
       </c>
       <c r="H39" s="11">
-        <v>122959</v>
+        <v>245594543</v>
       </c>
       <c r="I39" s="11">
-        <v>245594543</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>338135121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
+      <c r="E40" s="9">
+        <v>0</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1242,7 +1242,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1252,7 +1252,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1262,7 +1262,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>24</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1294,7 +1294,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>17</v>
       </c>
@@ -1302,23 +1302,23 @@
         <v>20</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>12</v>
+      <c r="E46" s="9">
+        <v>843</v>
       </c>
       <c r="F46" s="9">
-        <v>843</v>
+        <v>2928</v>
       </c>
       <c r="G46" s="9">
-        <v>2928</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>10</v>
       </c>
@@ -1326,23 +1326,23 @@
         <v>20</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>12</v>
+      <c r="E47" s="11">
+        <v>-1780804</v>
       </c>
       <c r="F47" s="11">
-        <v>-1780804</v>
+        <v>-2580156</v>
       </c>
       <c r="G47" s="11">
-        <v>-2580156</v>
+        <v>-3884461</v>
       </c>
       <c r="H47" s="11">
-        <v>-3884461</v>
+        <v>-8499119</v>
       </c>
       <c r="I47" s="11">
-        <v>-8499119</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-16273879</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -1350,8 +1350,8 @@
         <v>20</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
+      <c r="E48" s="9">
+        <v>0</v>
       </c>
       <c r="F48" s="9">
         <v>0</v>
@@ -1366,29 +1366,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>-1779961</v>
       </c>
       <c r="F49" s="13">
-        <v>-1779961</v>
+        <v>-2577228</v>
       </c>
       <c r="G49" s="13">
-        <v>-2577228</v>
+        <v>-3884461</v>
       </c>
       <c r="H49" s="13">
-        <v>-3884461</v>
+        <v>-8499119</v>
       </c>
       <c r="I49" s="13">
-        <v>-8499119</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-16273879</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1398,7 +1398,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1408,7 +1408,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1418,7 +1418,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
@@ -1458,23 +1458,23 @@
         <v>20</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>12</v>
+      <c r="E55" s="9">
+        <v>-380</v>
       </c>
       <c r="F55" s="9">
-        <v>-380</v>
+        <v>-820</v>
       </c>
       <c r="G55" s="9">
-        <v>-820</v>
-      </c>
-      <c r="H55" s="9">
         <v>-525</v>
       </c>
+      <c r="H55" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I55" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>10</v>
       </c>
@@ -1482,23 +1482,23 @@
         <v>20</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>12</v>
+      <c r="E56" s="11">
+        <v>804058</v>
       </c>
       <c r="F56" s="11">
-        <v>804058</v>
+        <v>722308</v>
       </c>
       <c r="G56" s="11">
-        <v>722308</v>
+        <v>1437573</v>
       </c>
       <c r="H56" s="11">
-        <v>1437573</v>
+        <v>2094356</v>
       </c>
       <c r="I56" s="11">
-        <v>2094356</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4151173</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>14</v>
       </c>
@@ -1509,8 +1509,8 @@
       <c r="E57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>12</v>
+      <c r="F57" s="9">
+        <v>0</v>
       </c>
       <c r="G57" s="9">
         <v>0</v>
@@ -1519,29 +1519,29 @@
         <v>0</v>
       </c>
       <c r="I57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-19267</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>0</v>
+        <v>803678</v>
       </c>
       <c r="F58" s="13">
-        <v>803678</v>
+        <v>721488</v>
       </c>
       <c r="G58" s="13">
-        <v>721488</v>
+        <v>1437048</v>
       </c>
       <c r="H58" s="13">
-        <v>1437048</v>
+        <v>2094356</v>
       </c>
       <c r="I58" s="13">
-        <v>2094356</v>
+        <v>4131906</v>
       </c>
     </row>
   </sheetData>
